--- a/biology/Zoologie/Dircenna_loreta/Dircenna_loreta.xlsx
+++ b/biology/Zoologie/Dircenna_loreta/Dircenna_loreta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dircenna loreta est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Dircenna.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dircenna loreta a été décrit par Richard Haensch en 1903[1].
-Sous-espèces
-Dircenna loreta loreta; présent en Équateur
-Dircenna loreta  acreana d'Almeida, 1950; présent au Brésil
-Dircenna loreta melini Bryk, 1953; présent au Pérou
-Dircenna loreta ssp ; présent au Brésil [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna loreta a été décrit par Richard Haensch en 1903.
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dircenna loreta est un papillon d'une envergure de 65 mm à 78 mm, au corps à abdomen mince, aux ailes translucides à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave[2],[3]. Les ailes sont  translucides veinées et bordées de gris.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dircenna loreta loreta; présent en Équateur
+Dircenna loreta  acreana d'Almeida, 1950; présent au Brésil
+Dircenna loreta melini Bryk, 1953; présent au Pérou
+Dircenna loreta ssp ; présent au Brésil .</t>
         </is>
       </c>
     </row>
@@ -574,12 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna loreta est un papillon d'une envergure de 65 mm à 78 mm, au corps à abdomen mince, aux ailes translucides à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave,. Les ailes sont  translucides veinées et bordées de gris.
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +628,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna loreta est présent en Équateur, en Colombie, au Brésil et au Pérou[1],[4],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna loreta est présent en Équateur, en Colombie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dircenna_loreta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_loreta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Dircenna loreta, sur Wikimedia CommonsDircenna loreta, sur Wikispecies
 </t>
